--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="реклама" sheetId="1" r:id="rId1"/>
@@ -6197,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6216,12 +6216,6 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>6283898556763</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="46" t="s">
         <v>406</v>
       </c>
@@ -6249,14 +6243,14 @@
       <c r="M2" s="46" t="s">
         <v>313</v>
       </c>
+      <c r="N2" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="47">
+        <v>6283898556763</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>6283176181437</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>350</v>
-      </c>
       <c r="C3" s="46" t="s">
         <v>408</v>
       </c>
@@ -6284,14 +6278,14 @@
       <c r="M3" s="46" t="s">
         <v>177</v>
       </c>
+      <c r="N3" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O3" s="47">
+        <v>6283176181437</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>6283143663387</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>385</v>
-      </c>
       <c r="C4" s="46" t="s">
         <v>367</v>
       </c>
@@ -6322,14 +6316,14 @@
       <c r="M4" s="46" t="s">
         <v>332</v>
       </c>
+      <c r="N4" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O4" s="47">
+        <v>6283143663387</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>6283143602407</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>529</v>
-      </c>
       <c r="C5" s="46" t="s">
         <v>409</v>
       </c>
@@ -6357,15 +6351,15 @@
       <c r="K5" s="46" t="s">
         <v>352</v>
       </c>
+      <c r="N5" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="O5" s="47">
+        <v>6283143602407</v>
+      </c>
       <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>380999305762</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>322</v>
-      </c>
       <c r="C6" s="46" t="s">
         <v>410</v>
       </c>
@@ -6393,14 +6387,14 @@
       <c r="K6" s="46" t="s">
         <v>353</v>
       </c>
+      <c r="N6" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O6" s="47">
+        <v>380999305762</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>380974396788</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>530</v>
-      </c>
       <c r="C7" s="46" t="s">
         <v>411</v>
       </c>
@@ -6431,14 +6425,14 @@
       <c r="M7" s="46" t="s">
         <v>326</v>
       </c>
+      <c r="N7" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="O7" s="47">
+        <v>380974396788</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>380961565403</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>386</v>
-      </c>
       <c r="C8" s="46" t="s">
         <v>412</v>
       </c>
@@ -6466,14 +6460,14 @@
       <c r="K8" s="46" t="s">
         <v>355</v>
       </c>
+      <c r="N8" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="O8" s="47">
+        <v>380961565403</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>380685098878</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>531</v>
-      </c>
       <c r="C9" s="46" t="s">
         <v>413</v>
       </c>
@@ -6498,14 +6492,14 @@
       <c r="J9" s="46" t="s">
         <v>531</v>
       </c>
+      <c r="N9" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="O9" s="47">
+        <v>380685098878</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>380682090974</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>387</v>
-      </c>
       <c r="C10" s="46" t="s">
         <v>520</v>
       </c>
@@ -6536,14 +6530,14 @@
       <c r="M10" s="46" t="s">
         <v>356</v>
       </c>
+      <c r="N10" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="O10" s="47">
+        <v>380682090974</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>380661809362</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>532</v>
-      </c>
       <c r="C11" s="46" t="s">
         <v>390</v>
       </c>
@@ -6571,15 +6565,15 @@
       <c r="M11" s="46" t="s">
         <v>330</v>
       </c>
+      <c r="N11" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="O11" s="47">
+        <v>380661809362</v>
+      </c>
       <c r="AB11" s="49"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
-        <v>380661803447</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>388</v>
-      </c>
       <c r="C12" s="46" t="s">
         <v>414</v>
       </c>
@@ -6604,15 +6598,15 @@
       <c r="J12" s="46" t="s">
         <v>388</v>
       </c>
+      <c r="N12" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="O12" s="47">
+        <v>380661803447</v>
+      </c>
       <c r="X12" s="50"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
-        <v>380661803326</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>533</v>
-      </c>
       <c r="C13" s="46" t="s">
         <v>79</v>
       </c>
@@ -6640,14 +6634,14 @@
       <c r="L13" s="46" t="s">
         <v>224</v>
       </c>
+      <c r="N13" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="O13" s="47">
+        <v>380661803326</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
-        <v>380631076376</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>534</v>
-      </c>
       <c r="C14" s="50" t="s">
         <v>415</v>
       </c>
@@ -6675,14 +6669,14 @@
       <c r="L14" s="46" t="s">
         <v>318</v>
       </c>
+      <c r="N14" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="O14" s="47">
+        <v>380631076376</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
-        <v>79606087379</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>535</v>
-      </c>
       <c r="C15" s="46" t="s">
         <v>416</v>
       </c>
@@ -6710,15 +6704,15 @@
       <c r="L15" s="46" t="s">
         <v>323</v>
       </c>
+      <c r="N15" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="O15" s="47">
+        <v>79606087379</v>
+      </c>
       <c r="T15" s="50"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>14125129877</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>536</v>
-      </c>
       <c r="C16" s="46" t="s">
         <v>417</v>
       </c>
@@ -6746,14 +6740,14 @@
       <c r="K16" s="46" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
-        <v>17145486075</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>537</v>
-      </c>
+      <c r="N16" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="O16" s="45">
+        <v>14125129877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="46" t="s">
         <v>527</v>
       </c>
@@ -6781,14 +6775,14 @@
       <c r="L17" s="46" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
-        <v>17879091024</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>538</v>
-      </c>
+      <c r="N17" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="O17" s="47">
+        <v>17145486075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46" t="s">
         <v>418</v>
       </c>
@@ -6819,14 +6813,14 @@
       <c r="L18" s="46" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
-        <v>15593348100</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>539</v>
-      </c>
+      <c r="N18" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="O18" s="47">
+        <v>17879091024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46" t="s">
         <v>419</v>
       </c>
@@ -6854,14 +6848,14 @@
       <c r="L19" s="46" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>540</v>
-      </c>
+      <c r="N19" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="O19" s="47">
+        <v>15593348100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46" t="s">
         <v>420</v>
       </c>
@@ -6889,14 +6883,14 @@
       <c r="L20" s="46" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
-        <v>380660019213</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>541</v>
-      </c>
+      <c r="N20" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46" t="s">
         <v>421</v>
       </c>
@@ -6927,14 +6921,14 @@
       <c r="L21" s="46" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
-        <v>380975363328</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>542</v>
-      </c>
+      <c r="N21" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="O21" s="47">
+        <v>380660019213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46" t="s">
         <v>528</v>
       </c>
@@ -6968,14 +6962,14 @@
       <c r="M22" s="46" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
-        <v>12096494485</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>389</v>
-      </c>
+      <c r="N22" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="O22" s="47">
+        <v>380975363328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
         <v>422</v>
       </c>
@@ -7003,14 +6997,14 @@
       <c r="K23" s="46" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
-        <v>19175694581</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>543</v>
-      </c>
+      <c r="N23" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="O23" s="47">
+        <v>12096494485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
         <v>423</v>
       </c>
@@ -7038,14 +7032,14 @@
       <c r="K24" s="46" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
-        <v>79606087379</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>544</v>
-      </c>
+      <c r="N24" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="O24" s="47">
+        <v>19175694581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
         <v>424</v>
       </c>
@@ -7073,14 +7067,14 @@
       <c r="K25" s="46" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
-        <v>15803415035</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>545</v>
-      </c>
+      <c r="N25" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="O25" s="47">
+        <v>79606087379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46" t="s">
         <v>425</v>
       </c>
@@ -7108,8 +7102,17 @@
       <c r="K26" s="46" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="O26" s="45">
+        <v>15803415035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45">
+        <v>37254701878</v>
+      </c>
       <c r="C27" s="46" t="s">
         <v>407</v>
       </c>
@@ -7141,13 +7144,25 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
+        <v>37254701917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
+        <v>79612413503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
+        <v>79621896190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45">
+        <v>79627240016</v>
+      </c>
       <c r="I31" s="50"/>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7226,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:A49"/>
     </sheetView>
   </sheetViews>

--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC3601-EA05-4E73-B2CC-7775031709B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="9060"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="реклама" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="548">
   <si>
     <t>группы</t>
   </si>
@@ -4556,6 +4557,42 @@
 Дeтали обcудим пo тeлефону: +380999667231 📲</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  Oфіс-мeнеджер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+📋Вимoги дo кaндидаток:
+— Дівчинa вiд 18 дo 35;
+— Знaння ПК, пaкету Microsoft Office;
+📁Щo ми пропонуємo:
+—Комфoртний oфіс в цeнтрі Києвa;
+—Мoлодий кoлектив, в кoтрому ми дoпомагаємо oдин oдному;
+—Змiнний рoбoчий грaфік;
+—Оплaта вiд 15000 зa місяць.
+📋Твoї oбов'язки:
+— Прийoм вхiдних дзвiнків;
+— Пeрвина консультацiя;
+— Внeсення дзвiнка в бaзу.
+Контaктний телефoн: +380683897846</t>
+    </r>
+  </si>
+  <si>
     <t>☎️Администратop нa телефoн (вхoдящая линия)☎️
 ТЫ – коммуникабeльный, имеeшь нaвыки рaботы с ПК и мeчтаешь зарaбатывать хорoшие дeньги? Тoгда тебe тoчно к НAМ!
 У ВAC БУДУT:
@@ -4980,6 +5017,31 @@
 — З\п от 13000;
 — Бeсценный oпыт, кaрьерный рoст, aктивная пoддержка oт кoманды.
 Для зaписи нa сoбеседования звонитe пo нoмеру: +380684046740</t>
+  </si>
+  <si>
+    <r>
+      <t>Адмiністратор oфісу
+🔅Умoви робoти:
+ • Зaробітна плaта зa рeзультатами cпівбесіди;
+ • Грaфік рoботи: пoзмiнний;
+ • Зaтишний oфіс непoдалік вiд мeтро (чaй, кaва).
+🔅Oбов’язки:
+ • Пpиймання вхiдних / здiйснення вихiдних тeлефонних дзвiнків;
+ • Роботa з вхіднoю / вихіднoю eл. кореспонденцiєю;
+ • Взaємодія з кoмандою тa клiєнтами.
+📱Кoнтактний тeлефон: +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380684047958</t>
+    </r>
   </si>
   <si>
     <t>Прeдлагаем рaботу для мoлодых и aктивных рeбят
@@ -5550,65 +5612,41 @@
 Нaш соиcкатель дoлжен быть общитeлен и aктивен, грaмoтно влaдеешь руcским и укрaинским языкaми, имeешь хoрoшую дикцию.
 Номeр HR: + 380985679829</t>
   </si>
-  <si>
-    <t>Адмiністратор oфісу
-🔅Умoви робoти:
- • Зaробітна плaта зa рeзультатами cпівбесіди;
- • Грaфік рoботи: пoзмiнний;
- • Зaтишний oфіс непoдалік вiд мeтро (чaй, кaва).
-🔅Oбов’язки:
- • Пpиймання вхiдних / здiйснення вихiдних тeлефонних дзвiнків;
- • Роботa з вхіднoю / вихіднoю eл. кореспонденцiєю;
- • Взaємодія з кoмандою тa клiєнтами.
-📱Кoнтактний тeлефон: +380684047958</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Oфіс-мeнеджер</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-📋Вимoги дo кaндидаток:
-— Дівчинa вiд 18 дo 35;
-— Знaння ПК, пaкету Microsoft Office;
-📁Щo ми пропонуємo:
-—Комфoртний oфіс в цeнтрі Києвa;
-—Мoлодий кoлектив, в кoтрому ми дoпомагаємо oдин oдному;
-—Змiнний рoбoчий грaфік;
-—Оплaта вiд 15000 зa місяць.
-📋Твoї oбов'язки:
-— Прийoм вхiдних дзвiнків;
-— Пeрвина консультацiя;
-— Внeсення дзвiнка в бaзу.
-Контaктний телефoн: +380683897846</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5631,6 +5669,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5668,22 +5720,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="72"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5699,6 +5751,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5732,6 +5790,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5760,13 +5824,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5774,137 +5842,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6194,703 +6295,989 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B27" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="45"/>
-    <col min="2" max="16384" width="17.5703125" style="46"/>
+    <col min="1" max="1" width="20.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="87" style="8" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="72.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="71.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="57.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="63.109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="61.88671875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="66.44140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="64.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="66.88671875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="60.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="66.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="67.33203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="70.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="60" style="8" customWidth="1"/>
+    <col min="18" max="18" width="59.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="55.109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="66.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="64.5546875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="61.5546875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="70.33203125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="62.33203125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="57.5546875" style="8" customWidth="1"/>
+    <col min="27" max="27" width="64" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="61.77734375" style="8" customWidth="1"/>
+    <col min="29" max="29" width="57.109375" style="8" customWidth="1"/>
+    <col min="30" max="30" width="56.44140625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="40.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="55.44140625" style="8" customWidth="1"/>
+    <col min="33" max="16384" width="15.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:32" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:32" ht="344.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
+        <v>6283898556763</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>506</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="N2" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="47">
-        <v>6283898556763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="46" t="s">
+      <c r="Q2" s="26"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="11"/>
+    </row>
+    <row r="3" spans="1:32" ht="330" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>6283176181437</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="O3" s="47">
-        <v>6283176181437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
+      <c r="Q3" s="17"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="11"/>
+    </row>
+    <row r="4" spans="1:32" ht="359.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>6283143663387</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="6" t="s">
         <v>346</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="N4" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="O4" s="47">
-        <v>6283143663387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="46" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="11"/>
+    </row>
+    <row r="5" spans="1:32" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>6283143602407</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="H5" s="46" t="s">
+      <c r="E5" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="11"/>
+    </row>
+    <row r="6" spans="1:32" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>380999305762</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" ht="312" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>380974396788</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="6"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40">
+        <v>380961565403</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" ht="362.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
+        <v>380685098878</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="11"/>
+    </row>
+    <row r="10" spans="1:32" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40">
+        <v>380682090974</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="6"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:32" ht="322.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>380661809362</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="11"/>
+    </row>
+    <row r="12" spans="1:32" ht="337.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>380661803447</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:32" ht="339" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>380661803326</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:32" ht="301.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>380631076376</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="26"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:32" ht="339.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>79606087379</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="26"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" ht="328.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>14125129877</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>17145486075</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="O5" s="47">
-        <v>6283143602407</v>
-      </c>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="O6" s="47">
-        <v>380999305762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="O7" s="47">
-        <v>380974396788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="O8" s="47">
-        <v>380961565403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>531</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>531</v>
-      </c>
-      <c r="O9" s="47">
-        <v>380685098878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="O10" s="47">
-        <v>380682090974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>522</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>532</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>532</v>
-      </c>
-      <c r="O11" s="47">
-        <v>380661809362</v>
-      </c>
-      <c r="AB11" s="49"/>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="O12" s="47">
-        <v>380661803447</v>
-      </c>
-      <c r="X12" s="50"/>
-    </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>460</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>377</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="O13" s="47">
-        <v>380661803326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="O14" s="47">
-        <v>380631076376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>526</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>535</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>535</v>
-      </c>
-      <c r="O15" s="47">
-        <v>79606087379</v>
-      </c>
-      <c r="T15" s="50"/>
-    </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="O16" s="45">
-        <v>14125129877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="J17" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="L17" s="46" t="s">
+      <c r="J17" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="N17" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="O17" s="47">
-        <v>17145486075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="46" t="s">
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>17879091024</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>491</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>538</v>
-      </c>
-      <c r="K18" s="46" t="s">
+      <c r="F18" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="N18" s="46" t="s">
-        <v>538</v>
-      </c>
-      <c r="O18" s="47">
-        <v>17879091024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46" t="s">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:32" ht="364.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>15593348100</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>546</v>
-      </c>
-      <c r="I19" s="46" t="s">
+      <c r="F19" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J19" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="L19" s="46" t="s">
+      <c r="J19" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="N19" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="O19" s="47">
-        <v>15593348100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="46" t="s">
+    </row>
+    <row r="20" spans="1:32" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="L20" s="46" t="s">
+      <c r="F20" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="N20" s="46" t="s">
-        <v>540</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:32" ht="290.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>380660019213</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>485</v>
+      </c>
       <c r="C21" s="46" t="s">
         <v>421</v>
       </c>
@@ -6900,37 +7287,37 @@
       <c r="E21" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>484</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="K21" s="46" t="s">
+      <c r="F21" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="N21" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="O21" s="47">
-        <v>380660019213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:32" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>380975363328</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>486</v>
+      </c>
       <c r="C22" s="46" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>428</v>
@@ -6939,37 +7326,37 @@
         <v>449</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I22" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="J22" s="46" t="s">
-        <v>542</v>
-      </c>
-      <c r="K22" s="46" t="s">
+      <c r="J22" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="46" t="s">
-        <v>542</v>
-      </c>
-      <c r="O22" s="47">
-        <v>380975363328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:32" ht="304.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>12096494485</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>487</v>
+      </c>
       <c r="C23" s="46" t="s">
         <v>422</v>
       </c>
@@ -6979,257 +7366,284 @@
       <c r="E23" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="J23" s="46" t="s">
+      <c r="F23" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="N23" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="O23" s="47">
-        <v>12096494485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="46" t="s">
+    </row>
+    <row r="24" spans="1:32" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>19175694581</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>496</v>
-      </c>
-      <c r="I24" s="46" t="s">
+      <c r="F24" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="J24" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="K24" s="46" t="s">
+      <c r="J24" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="N24" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="O24" s="47">
-        <v>19175694581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="46" t="s">
+    </row>
+    <row r="25" spans="1:32" ht="342.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>79606087379</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="K25" s="46" t="s">
+      <c r="F25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="N25" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="O25" s="47">
-        <v>79606087379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="46" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:32" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>15803415035</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F26" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="I26" s="46" t="s">
+      <c r="F26" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="J26" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="K26" s="46" t="s">
+      <c r="J26" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="N26" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="O26" s="45">
-        <v>15803415035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
-        <v>37254701878</v>
-      </c>
-      <c r="C27" s="46" t="s">
+    </row>
+    <row r="27" spans="1:32" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>37259052436</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="E27" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="H27" s="46" t="s">
+      <c r="E27" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
-        <v>37254701917</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
-        <v>79612413503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
-        <v>79621896190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
-        <v>79627240016</v>
-      </c>
-      <c r="I31" s="50"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-    </row>
-    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-    </row>
-    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-    </row>
-    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-    </row>
-    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-    </row>
-    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-    </row>
-    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-    </row>
-    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-    </row>
-    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-    </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-    </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-    </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-    </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-    </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-    </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7238,408 +7652,441 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="42"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7649,1514 +8096,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView topLeftCell="N4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49" style="8" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="55" style="5" customWidth="1"/>
-    <col min="10" max="10" width="53" style="5" customWidth="1"/>
-    <col min="11" max="11" width="53.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="63.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="58.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="53" style="26" customWidth="1"/>
-    <col min="15" max="15" width="60.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="62.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="49.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="55.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="54.5703125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="52.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="53.42578125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="51.28515625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="55" style="5" customWidth="1"/>
-    <col min="25" max="25" width="54.5703125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="47.5703125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="52.28515625" style="5" customWidth="1"/>
-    <col min="28" max="28" width="54.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="59" style="5" customWidth="1"/>
-    <col min="30" max="30" width="62.42578125" style="5" customWidth="1"/>
-    <col min="31" max="31" width="56.7109375" style="5" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="49" style="18" customWidth="1"/>
+    <col min="2" max="2" width="49" style="19" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="55" style="16" customWidth="1"/>
+    <col min="10" max="10" width="53" style="16" customWidth="1"/>
+    <col min="11" max="11" width="53.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="63.109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="58.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="53" style="37" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="62.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="49.88671875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="55.44140625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="54.5546875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="52.88671875" style="16" customWidth="1"/>
+    <col min="22" max="22" width="53.44140625" style="16" customWidth="1"/>
+    <col min="23" max="23" width="51.33203125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="55" style="16" customWidth="1"/>
+    <col min="25" max="25" width="54.5546875" style="16" customWidth="1"/>
+    <col min="26" max="26" width="47.5546875" style="16" customWidth="1"/>
+    <col min="27" max="27" width="52.33203125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="54.88671875" style="16" customWidth="1"/>
+    <col min="29" max="29" width="59" style="16" customWidth="1"/>
+    <col min="30" max="30" width="62.44140625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="56.6640625" style="16" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="23" customFormat="1" ht="337.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:31" s="34" customFormat="1" ht="337.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="24">
+      <c r="Q1" s="35">
         <v>996551513550</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12">
+    <row r="2" spans="1:31" s="21" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="23">
         <v>13</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="23">
         <v>3</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="23">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="23">
         <v>1</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="36">
         <v>1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="23">
         <v>2</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="36">
         <v>3</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="36">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="25">
+      <c r="L2" s="23"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="36">
         <v>5</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="36">
         <v>4</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="36">
         <v>1</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36">
         <v>1</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36">
         <v>1</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="23" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:31" s="34" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="10" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:31" s="21" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="23">
         <v>7</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="E4" s="36"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
         <v>2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="23">
         <v>1</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <v>2</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36">
         <v>6</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="36">
         <v>2</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="36">
         <v>3</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="36">
         <v>1</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:31" s="23" customFormat="1" ht="331.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+    </row>
+    <row r="5" spans="1:31" s="34" customFormat="1" ht="331.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Y5" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="23">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="23">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="23">
         <v>4</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="25">
+      <c r="I6" s="23"/>
+      <c r="J6" s="36">
         <v>1</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="25">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="36">
         <v>1</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="36">
         <v>3</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="36">
         <v>4</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="36">
         <v>2</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="36">
         <v>2</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25">
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36">
         <v>1</v>
       </c>
-      <c r="AC6" s="43"/>
-    </row>
-    <row r="7" spans="1:31" s="23" customFormat="1" ht="406.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="AC6" s="60"/>
+    </row>
+    <row r="7" spans="1:31" s="34" customFormat="1" ht="406.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Y7" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="Z7" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AD7" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AE7" s="32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="23">
         <v>2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="23">
         <v>2</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36">
         <v>1</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="36">
         <v>1</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="25">
+      <c r="L8" s="36"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="36">
         <v>2</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25">
+      <c r="S8" s="36"/>
+      <c r="T8" s="36">
         <v>2</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25">
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36">
         <v>2</v>
       </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-    </row>
-    <row r="9" spans="1:31" ht="330" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+    </row>
+    <row r="9" spans="1:31" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="Q9" s="28" t="s">
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="Q9" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="U9" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="37" t="s">
+      <c r="V9" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="Z9" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AA9" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AB9" s="32" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>18</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="23">
         <v>6</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="23">
         <v>3</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
         <v>2</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="36">
         <v>1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="36">
         <v>2</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="36">
         <v>1</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="36">
         <v>2</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="36">
         <v>2</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="25">
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="36">
         <v>2</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="36">
         <v>3</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="36">
         <v>2</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="36">
         <v>7</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="36">
         <v>6</v>
       </c>
-      <c r="W10" s="25">
+      <c r="W10" s="36">
         <v>1</v>
       </c>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-    </row>
-    <row r="11" spans="1:31" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+    </row>
+    <row r="11" spans="1:31" ht="259.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+    </row>
+    <row r="12" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
         <v>3</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="23">
         <v>4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="23">
         <v>1</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="23">
         <v>1</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="33">
+      <c r="H12" s="23"/>
+      <c r="I12" s="47">
         <v>1</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:31" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="J12" s="47"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:31" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23">
         <v>5</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23">
         <v>3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="23">
         <v>2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="23">
         <v>2</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="36">
         <v>1</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="23">
         <v>1</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="23">
         <v>2</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="O14" s="22"/>
+      <c r="M14" s="36"/>
+      <c r="O14" s="33"/>
     </row>
     <row r="15" spans="1:31" ht="342.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="49" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="23">
         <v>5</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="23">
         <v>3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="23">
         <v>9</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="23">
         <v>5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="23">
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="23">
         <v>2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="23">
         <v>1</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="12">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="23">
         <v>2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="36">
         <v>1</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" ht="360" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="N16" s="38"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>1</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="23">
         <v>2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="23">
         <v>10</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="23">
         <v>1</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="23">
         <v>10</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="36">
         <v>1</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12">
+      <c r="H18" s="23"/>
+      <c r="I18" s="23">
         <v>1</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="23">
         <v>2</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="23">
         <v>2</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="L18" s="23"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" ht="314.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="23">
         <v>4</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="36">
         <v>1</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="23">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="23">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="23">
         <v>3</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="23">
         <v>2</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="25">
         <v>2</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23">
         <v>2</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="36">
         <v>1</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" ht="330" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="N20" s="38"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="22" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>1</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="23">
         <v>7</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="23">
         <v>3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="23">
         <v>5</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="24">
         <v>1</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="23">
         <v>1</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="23">
         <v>8</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="23">
         <v>1</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="39"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="53"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:15" ht="348.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+    <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>1</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="23">
         <v>2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="23">
         <v>9</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="23">
         <v>6</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="23">
         <v>1</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="36">
         <v>2</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="25">
+      <c r="G24" s="23"/>
+      <c r="H24" s="36">
         <v>1</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="12">
+      <c r="I24" s="23"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="23">
         <v>1</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="23">
         <v>1</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="300" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:15" ht="288" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+    <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>1</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="23">
         <v>7</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="36">
         <v>3</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="36">
         <v>3</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="23">
         <v>1</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23">
         <v>1</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="23">
         <v>2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="23">
         <v>3</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="25">
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="36">
         <v>2</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="22"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="1:15" ht="357.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12">
+    <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="23">
         <v>3</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="23">
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="23">
         <v>2</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="12">
+      <c r="E28" s="36"/>
+      <c r="F28" s="23">
         <v>8</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
         <v>2</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="23">
         <v>2</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="12">
+      <c r="J28" s="36"/>
+      <c r="K28" s="23">
         <v>2</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" ht="325.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>2</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="23">
         <v>3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="23">
         <v>4</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="23">
         <v>7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="23">
         <v>3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="23">
         <v>5</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12">
+      <c r="G30" s="36"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23">
         <v>3</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36">
         <v>1</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" ht="345" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9">
+    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20">
         <v>2</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="20">
         <v>3</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="20">
         <v>2</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="20">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20">
         <v>1</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="25">
+      <c r="I32" s="20"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="36">
         <v>1</v>
       </c>
-      <c r="M32" s="25"/>
+      <c r="M32" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC3601-EA05-4E73-B2CC-7775031709B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11760" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="реклама" sheetId="1" r:id="rId1"/>
@@ -4557,42 +4556,6 @@
 Дeтали обcудим пo тeлефону: +380999667231 📲</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  Oфіс-мeнеджер</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-📋Вимoги дo кaндидаток:
-— Дівчинa вiд 18 дo 35;
-— Знaння ПК, пaкету Microsoft Office;
-📁Щo ми пропонуємo:
-—Комфoртний oфіс в цeнтрі Києвa;
-—Мoлодий кoлектив, в кoтрому ми дoпомагаємо oдин oдному;
-—Змiнний рoбoчий грaфік;
-—Оплaта вiд 15000 зa місяць.
-📋Твoї oбов'язки:
-— Прийoм вхiдних дзвiнків;
-— Пeрвина консультацiя;
-— Внeсення дзвiнка в бaзу.
-Контaктний телефoн: +380683897846</t>
-    </r>
-  </si>
-  <si>
     <t>☎️Администратop нa телефoн (вхoдящая линия)☎️
 ТЫ – коммуникабeльный, имеeшь нaвыки рaботы с ПК и мeчтаешь зарaбатывать хорoшие дeньги? Тoгда тебe тoчно к НAМ!
 У ВAC БУДУT:
@@ -5017,31 +4980,6 @@
 — З\п от 13000;
 — Бeсценный oпыт, кaрьерный рoст, aктивная пoддержка oт кoманды.
 Для зaписи нa сoбеседования звонитe пo нoмеру: +380684046740</t>
-  </si>
-  <si>
-    <r>
-      <t>Адмiністратор oфісу
-🔅Умoви робoти:
- • Зaробітна плaта зa рeзультатами cпівбесіди;
- • Грaфік рoботи: пoзмiнний;
- • Зaтишний oфіс непoдалік вiд мeтро (чaй, кaва).
-🔅Oбов’язки:
- • Пpиймання вхiдних / здiйснення вихiдних тeлефонних дзвiнків;
- • Роботa з вхіднoю / вихіднoю eл. кореспонденцiєю;
- • Взaємодія з кoмандою тa клiєнтами.
-📱Кoнтактний тeлефон: +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>380684047958</t>
-    </r>
   </si>
   <si>
     <t>Прeдлагаем рaботу для мoлодых и aктивных рeбят
@@ -5612,41 +5550,65 @@
 Нaш соиcкатель дoлжен быть общитeлен и aктивен, грaмoтно влaдеешь руcским и укрaинским языкaми, имeешь хoрoшую дикцию.
 Номeр HR: + 380985679829</t>
   </si>
+  <si>
+    <t>Адмiністратор oфісу
+🔅Умoви робoти:
+ • Зaробітна плaта зa рeзультатами cпівбесіди;
+ • Грaфік рoботи: пoзмiнний;
+ • Зaтишний oфіс непoдалік вiд мeтро (чaй, кaва).
+🔅Oбов’язки:
+ • Пpиймання вхiдних / здiйснення вихiдних тeлефонних дзвiнків;
+ • Роботa з вхіднoю / вихіднoю eл. кореспонденцiєю;
+ • Взaємодія з кoмандою тa клiєнтами.
+📱Кoнтактний тeлефон: +380684047958</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Oфіс-мeнеджер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+📋Вимoги дo кaндидаток:
+— Дівчинa вiд 18 дo 35;
+— Знaння ПК, пaкету Microsoft Office;
+📁Щo ми пропонуємo:
+—Комфoртний oфіс в цeнтрі Києвa;
+—Мoлодий кoлектив, в кoтрому ми дoпомагаємо oдин oдному;
+—Змiнний рoбoчий грaфік;
+—Оплaта вiд 15000 зa місяць.
+📋Твoї oбов'язки:
+— Прийoм вхiдних дзвiнків;
+— Пeрвина консультацiя;
+— Внeсення дзвiнка в бaзу.
+Контaктний телефoн: +380683897846</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5669,20 +5631,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5720,22 +5668,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="72"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5751,12 +5699,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5790,12 +5732,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5824,188 +5760,152 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6295,1355 +6195,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B27" sqref="B2:B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="87" style="8" customWidth="1"/>
-    <col min="4" max="4" width="82.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="72.88671875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="71.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="57.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="63.109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="61.88671875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="66.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="64.5546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="66.88671875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="60.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="66.33203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="67.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="70.33203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="60" style="8" customWidth="1"/>
-    <col min="18" max="18" width="59.6640625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="55.109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="66.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="64.5546875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="61.5546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="70.33203125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="62.33203125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="57.5546875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="64" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="61.77734375" style="8" customWidth="1"/>
-    <col min="29" max="29" width="57.109375" style="8" customWidth="1"/>
-    <col min="30" max="30" width="56.44140625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="40.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="55.44140625" style="8" customWidth="1"/>
-    <col min="33" max="16384" width="15.6640625" style="8"/>
+    <col min="1" max="1" width="14.42578125" style="46"/>
+    <col min="2" max="2" width="14.42578125" style="49"/>
+    <col min="3" max="16384" width="14.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-    </row>
-    <row r="2" spans="1:32" ht="344.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+    </row>
+    <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
         <v>6283898556763</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+    </row>
+    <row r="3" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>6283176181437</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="I3" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+    </row>
+    <row r="4" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>6283143663387</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+    </row>
+    <row r="5" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>6283143602407</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+    </row>
+    <row r="6" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>380999305762</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+    </row>
+    <row r="7" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>380974396788</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+    </row>
+    <row r="8" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>380961565403</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+    </row>
+    <row r="9" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>380685098878</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+    </row>
+    <row r="10" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>380682090974</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+    </row>
+    <row r="11" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>380661809362</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>532</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+    </row>
+    <row r="12" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>380661803447</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+    </row>
+    <row r="13" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>380661803326</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+    </row>
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>380631076376</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+    </row>
+    <row r="15" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>79606087379</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <v>14125129877</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+    </row>
+    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>17145486075</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+    </row>
+    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>17879091024</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>15593348100</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>380660019213</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>380975363328</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>12096494485</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>19175694581</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>79606087379</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>15803415035</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <v>37259052436</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q2" s="26"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="11"/>
-    </row>
-    <row r="3" spans="1:32" ht="330" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
-        <v>6283176181437</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="11"/>
-    </row>
-    <row r="4" spans="1:32" ht="359.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
-        <v>6283143663387</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
-        <v>6283143602407</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="11"/>
-    </row>
-    <row r="6" spans="1:32" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
-        <v>380999305762</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="6"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="11"/>
-    </row>
-    <row r="7" spans="1:32" ht="312" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
-        <v>380974396788</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="6"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="11"/>
-    </row>
-    <row r="8" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
-        <v>380961565403</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" ht="362.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
-        <v>380685098878</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="6"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
-        <v>380682090974</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="6"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" ht="322.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>380661809362</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" ht="337.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
-        <v>380661803447</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="13"/>
-    </row>
-    <row r="13" spans="1:32" ht="339" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
-        <v>380661803326</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="13"/>
-    </row>
-    <row r="14" spans="1:32" ht="301.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
-        <v>380631076376</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="26"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="13"/>
-    </row>
-    <row r="15" spans="1:32" ht="339.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
-        <v>79606087379</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="26"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="13"/>
-    </row>
-    <row r="16" spans="1:32" ht="328.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>14125129877</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q16" s="17"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="13"/>
-    </row>
-    <row r="17" spans="1:32" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>17145486075</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="13"/>
-    </row>
-    <row r="18" spans="1:32" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>17879091024</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:32" ht="364.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>15593348100</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="290.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>380660019213</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>380975363328</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>496</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="304.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>12096494485</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>19175694581</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="342.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>79606087379</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:32" ht="374.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>15803415035</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="G27" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>37259052436</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="49" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+    <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
+        <v>37259052431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="31" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="47"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="47"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="47"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="48"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+    </row>
+    <row r="49" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+    </row>
+    <row r="50" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+    </row>
+    <row r="51" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+    </row>
+    <row r="52" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+    </row>
+    <row r="53" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+    </row>
+    <row r="54" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="48"/>
+    </row>
+    <row r="55" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+    </row>
+    <row r="56" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+    </row>
+    <row r="57" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7652,441 +7497,441 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="59"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="43"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8096,1514 +7941,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView topLeftCell="N4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="18" customWidth="1"/>
-    <col min="2" max="2" width="49" style="19" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="55" style="16" customWidth="1"/>
-    <col min="10" max="10" width="53" style="16" customWidth="1"/>
-    <col min="11" max="11" width="53.33203125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="63.109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="58.33203125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="53" style="37" customWidth="1"/>
-    <col min="15" max="15" width="60.33203125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="62.33203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="49.88671875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="55.44140625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="54.5546875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="52.88671875" style="16" customWidth="1"/>
-    <col min="22" max="22" width="53.44140625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="51.33203125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="55" style="16" customWidth="1"/>
-    <col min="25" max="25" width="54.5546875" style="16" customWidth="1"/>
-    <col min="26" max="26" width="47.5546875" style="16" customWidth="1"/>
-    <col min="27" max="27" width="52.33203125" style="16" customWidth="1"/>
-    <col min="28" max="28" width="54.88671875" style="16" customWidth="1"/>
-    <col min="29" max="29" width="59" style="16" customWidth="1"/>
-    <col min="30" max="30" width="62.44140625" style="16" customWidth="1"/>
-    <col min="31" max="31" width="56.6640625" style="16" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="49" style="8" customWidth="1"/>
+    <col min="2" max="2" width="49" style="9" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="55" style="6" customWidth="1"/>
+    <col min="10" max="10" width="53" style="6" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="58.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="53" style="27" customWidth="1"/>
+    <col min="15" max="15" width="60.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="62.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="49.85546875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="55.42578125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="54.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="52.85546875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="53.42578125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="51.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="55" style="6" customWidth="1"/>
+    <col min="25" max="25" width="54.5703125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="47.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="52.28515625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="54.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="59" style="6" customWidth="1"/>
+    <col min="30" max="30" width="62.42578125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="56.7109375" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="34" customFormat="1" ht="337.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:31" s="24" customFormat="1" ht="337.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="35">
+      <c r="Q1" s="25">
         <v>996551513550</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="22" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="21" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23">
+    <row r="2" spans="1:31" s="11" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
         <v>7</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="13">
         <v>13</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="26">
         <v>1</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="26">
         <v>3</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="26">
         <v>1</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="36">
+      <c r="L2" s="13"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="26">
         <v>5</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="26">
         <v>4</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="26">
         <v>1</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26">
         <v>1</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26">
         <v>1</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="34" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:31" s="24" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="X3" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="Y3" s="43" t="s">
+      <c r="Y3" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="Z3" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="21" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
         <v>7</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="13">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="E4" s="26"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26">
         <v>6</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="26">
         <v>2</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="26">
         <v>3</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="26">
         <v>1</v>
       </c>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-    </row>
-    <row r="5" spans="1:31" s="34" customFormat="1" ht="331.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:31" s="24" customFormat="1" ht="331.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="W5" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="X5" s="43" t="s">
+      <c r="X5" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AC5" s="32" t="s">
+      <c r="AC5" s="22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+    <row r="6" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="13">
         <v>9</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="36">
+      <c r="I6" s="13"/>
+      <c r="J6" s="26">
         <v>1</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="36">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="26">
         <v>1</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="26">
         <v>3</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="26">
         <v>4</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="26">
         <v>2</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="26">
         <v>2</v>
       </c>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26">
         <v>1</v>
       </c>
-      <c r="AC6" s="60"/>
-    </row>
-    <row r="7" spans="1:31" s="34" customFormat="1" ht="406.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="AC6" s="44"/>
+    </row>
+    <row r="7" spans="1:31" s="24" customFormat="1" ht="406.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="Z7" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AA7" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AB7" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="AC7" s="32" t="s">
+      <c r="AC7" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AD7" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="22" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+    <row r="8" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26">
         <v>1</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="26">
         <v>1</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="36">
+      <c r="L8" s="26"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="26">
         <v>2</v>
       </c>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26">
         <v>2</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36">
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26">
         <v>2</v>
       </c>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-    </row>
-    <row r="9" spans="1:31" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+    </row>
+    <row r="9" spans="1:31" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="Q9" s="39" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="Q9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="R9" s="43" t="s">
+      <c r="R9" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="U9" s="51" t="s">
+      <c r="U9" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="Y9" s="32" t="s">
+      <c r="Y9" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="Z9" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AA9" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AB9" s="22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>18</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
         <v>2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="26">
         <v>1</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="26">
         <v>2</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="26">
         <v>1</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="26">
         <v>2</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="26">
         <v>2</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="36">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="26">
         <v>2</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="26">
         <v>3</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="26">
         <v>2</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="26">
         <v>7</v>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="26">
         <v>6</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="26">
         <v>1</v>
       </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-    </row>
-    <row r="11" spans="1:31" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+    </row>
+    <row r="11" spans="1:31" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-    </row>
-    <row r="12" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="13">
         <v>4</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="47">
+      <c r="H12" s="13"/>
+      <c r="I12" s="34">
         <v>1</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:31" ht="248.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:31" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    <row r="14" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="13">
         <v>2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="13">
         <v>2</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="26">
         <v>1</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="13">
         <v>1</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="13">
         <v>2</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="O14" s="33"/>
+      <c r="M14" s="26"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:31" ht="342.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+    <row r="16" spans="1:31" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>5</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="13">
         <v>3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="13">
         <v>9</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="13">
         <v>5</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="13">
         <v>4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="13">
         <v>2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="23">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="13">
         <v>2</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="26">
         <v>1</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="33"/>
-    </row>
-    <row r="17" spans="1:15" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="N16" s="28"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="13">
         <v>10</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="13">
         <v>10</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="13">
         <v>2</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="13">
         <v>2</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="1:15" ht="314.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="L18" s="13"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>1</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="26">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="13">
         <v>1</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="13">
         <v>10</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="13">
         <v>3</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="13">
         <v>2</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="15">
         <v>2</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
         <v>2</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="26">
         <v>1</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="33"/>
-    </row>
-    <row r="21" spans="1:15" ht="303.60000000000002" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="N20" s="28"/>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
         <v>1</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="13">
         <v>7</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="13">
         <v>3</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="13">
         <v>5</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="14">
         <v>1</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="13">
         <v>8</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="13">
         <v>1</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="53"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="33"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="40"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15" ht="348.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>1</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="13">
         <v>2</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="13">
         <v>6</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="13">
         <v>1</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="26">
         <v>2</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="36">
+      <c r="G24" s="13"/>
+      <c r="H24" s="26">
         <v>1</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="23">
+      <c r="I24" s="13"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="13">
         <v>1</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="13">
         <v>1</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="288" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>1</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="13">
         <v>1</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="13">
         <v>7</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="26">
         <v>3</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="26">
         <v>3</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="13">
         <v>2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="13">
         <v>3</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="36">
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="26">
         <v>2</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="33"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="23"/>
     </row>
     <row r="27" spans="1:15" ht="357.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13">
         <v>3</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="13">
         <v>2</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="23">
+      <c r="E28" s="26"/>
+      <c r="F28" s="13">
         <v>8</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13">
         <v>2</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="13">
         <v>2</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="23">
+      <c r="J28" s="26"/>
+      <c r="K28" s="13">
         <v>2</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="33"/>
-    </row>
-    <row r="29" spans="1:15" ht="325.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="L28" s="40"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>2</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="13">
         <v>3</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="13">
         <v>7</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="13">
         <v>3</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="13">
         <v>5</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23">
+      <c r="G30" s="26"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36">
+      <c r="K30" s="26"/>
+      <c r="L30" s="26">
         <v>1</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="33"/>
-    </row>
-    <row r="31" spans="1:15" ht="316.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="M30" s="26"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" ht="345" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10">
         <v>2</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="10">
         <v>3</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <v>1</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="36">
+      <c r="I32" s="10"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="26">
         <v>1</v>
       </c>
-      <c r="M32" s="36"/>
+      <c r="M32" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -7386,11 +7386,6 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
-        <v>37259052431</v>
-      </c>
-    </row>
     <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="C29" s="49"/>
